--- a/data/board-stats.xlsx
+++ b/data/board-stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Recon\monopoly-sa\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853DA4F3-E23C-42C4-95E9-CA983CA919B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FDE3BF-4BC6-4BF5-9411-4D74235891B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F3BFBE7E-18BF-446B-9D50-1F67EE592029}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F3BFBE7E-18BF-446B-9D50-1F67EE592029}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
   <si>
     <t>Property</t>
   </si>
@@ -133,6 +133,87 @@
   </si>
   <si>
     <t>Clifton</t>
+  </si>
+  <si>
+    <t>base_url</t>
+  </si>
+  <si>
+    <t>https://www.privateproperty.co.za/for-sale/kwazulu-natal/durban/westville/westville/407</t>
+  </si>
+  <si>
+    <t>filters</t>
+  </si>
+  <si>
+    <t>?pt=5%2C2%2C10</t>
+  </si>
+  <si>
+    <t>https://www.privateproperty.co.za/for-sale/kwazulu-natal/durban/amanzimtoti/amanzimtoti/395</t>
+  </si>
+  <si>
+    <t>https://www.privateproperty.co.za/for-sale/kwazulu-natal/durban/umhlanga/umhlanga-rocks/391</t>
+  </si>
+  <si>
+    <t>https://www.privateproperty.co.za/for-sale/kwazulu-natal/ballito-and-dolphin-coast/ballito/ballito/574</t>
+  </si>
+  <si>
+    <t>https://www.privateproperty.co.za/for-sale/kwazulu-natal/durban/umhlanga/la-lucia/385</t>
+  </si>
+  <si>
+    <t>https://www.privateproperty.co.za/for-sale/eastern-cape/port-elizabeth-and-nelson-mandela-bay/port-elizabeth/67</t>
+  </si>
+  <si>
+    <t>https://www.privateproperty.co.za/for-sale/gauteng/pretoria/pretoria-east-south/menlyn/1823</t>
+  </si>
+  <si>
+    <t>https://www.privateproperty.co.za/for-sale/gauteng/pretoria/pretoria-central-and-old-east/waterkloof/192</t>
+  </si>
+  <si>
+    <t>https://www.privateproperty.co.za/for-sale/western-cape/garden-route/wilderness/2349</t>
+  </si>
+  <si>
+    <t>https://www.privateproperty.co.za/for-sale/western-cape/garden-route/knysna/923</t>
+  </si>
+  <si>
+    <t>https://www.privateproperty.co.za/for-sale/western-cape/garden-route/plettenberg-bay/925</t>
+  </si>
+  <si>
+    <t>https://www.privateproperty.co.za/for-sale/gauteng/johannesburg/johannesburg-cbd-and-bruma/hillbrow/1893</t>
+  </si>
+  <si>
+    <t>https://www.privateproperty.co.za/for-sale/gauteng/johannesburg/soweto/25</t>
+  </si>
+  <si>
+    <t>https://www.privateproperty.co.za/for-sale/gauteng/east-rand/boksburg/44</t>
+  </si>
+  <si>
+    <t>https://www.privateproperty.co.za/for-sale/gauteng/johannesburg/randburg-and-ferndale/35</t>
+  </si>
+  <si>
+    <t>https://www.privateproperty.co.za/for-sale/gauteng/johannesburg/sandton-and-bryanston-north/34</t>
+  </si>
+  <si>
+    <t>https://www.privateproperty.co.za/for-sale/gauteng/johannesburg/sandton-and-bryanston-north/hyde-park/1024</t>
+  </si>
+  <si>
+    <t>https://www.privateproperty.co.za/for-sale/western-cape/cape-town/cape-flats/mitchells-plain/423</t>
+  </si>
+  <si>
+    <t>https://www.privateproperty.co.za/for-sale/western-cape/cape-town/tableview-and-blouberg/bloubergstrand/441</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>https://www.privateproperty.co.za/for-sale/western-cape/cape-town/bellville/tyger-valley/10004977</t>
+  </si>
+  <si>
+    <t>Take just Bellville if too few</t>
+  </si>
+  <si>
+    <t>https://www.privateproperty.co.za/for-sale/western-cape/cape-town/atlantic-seaboard/clifton/1502</t>
+  </si>
+  <si>
+    <t>https://www.privateproperty.co.za/for-sale/western-cape/boland/paarl-to-franschhoek/franschhoek/646</t>
   </si>
 </sst>
 </file>
@@ -141,9 +222,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R&quot;* #,##0.00_-;\-&quot;R&quot;* #,##0.00_-;_-&quot;R&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-&quot;R&quot;* #,##0_-;\-&quot;R&quot;* #,##0_-;_-&quot;R&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R&quot;* #,##0_-;\-&quot;R&quot;* #,##0_-;_-&quot;R&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +235,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -176,16 +265,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -498,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9208678B-7BF1-46C3-8124-85B3B51FA110}">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,9 +601,11 @@
     <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="108.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -521,8 +615,17 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -532,8 +635,14 @@
       <c r="C2" s="1">
         <v>6000</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -543,8 +652,11 @@
       <c r="C3" s="1">
         <v>6000</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -554,8 +666,11 @@
       <c r="C4" s="1">
         <v>10000</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -565,8 +680,11 @@
       <c r="C5" s="1">
         <v>10000</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -576,8 +694,11 @@
       <c r="C6" s="1">
         <v>12000</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -587,8 +708,11 @@
       <c r="C7" s="1">
         <v>14000</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -598,8 +722,11 @@
       <c r="C8" s="1">
         <v>14000</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -609,8 +736,11 @@
       <c r="C9" s="1">
         <v>16000</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -620,8 +750,11 @@
       <c r="C10" s="1">
         <v>18000</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -631,8 +764,11 @@
       <c r="C11" s="1">
         <v>18000</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -642,8 +778,11 @@
       <c r="C12" s="1">
         <v>20000</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -653,8 +792,11 @@
       <c r="C13" s="1">
         <v>22000</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
@@ -664,8 +806,11 @@
       <c r="C14" s="1">
         <v>22000</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -675,8 +820,11 @@
       <c r="C15" s="1">
         <v>24000</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -686,8 +834,11 @@
       <c r="C16" s="1">
         <v>26000</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -697,8 +848,11 @@
       <c r="C17" s="1">
         <v>26000</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>25</v>
       </c>
@@ -708,8 +862,11 @@
       <c r="C18" s="1">
         <v>28000</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>26</v>
       </c>
@@ -719,8 +876,11 @@
       <c r="C19" s="1">
         <v>30000</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>28</v>
       </c>
@@ -730,8 +890,14 @@
       <c r="C20" s="1">
         <v>30000</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -741,8 +907,11 @@
       <c r="C21" s="1">
         <v>32000</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>29</v>
       </c>
@@ -752,8 +921,11 @@
       <c r="C22" s="1">
         <v>35000</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>32</v>
       </c>
@@ -763,8 +935,14 @@
       <c r="C23" s="1">
         <v>40000</v>
       </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{305171A3-D26D-4512-A055-30ACD08EE602}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/board-stats.xlsx
+++ b/data/board-stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Recon\monopoly-sa\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23FDE3BF-4BC6-4BF5-9411-4D74235891B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3095C9B1-D25E-4A9E-8FB5-F2C7B56CEB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F3BFBE7E-18BF-446B-9D50-1F67EE592029}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="81">
   <si>
     <t>Property</t>
   </si>
@@ -214,6 +214,69 @@
   </si>
   <si>
     <t>https://www.privateproperty.co.za/for-sale/western-cape/boland/paarl-to-franschhoek/franschhoek/646</t>
+  </si>
+  <si>
+    <t>?pt=5%2C2%2C11</t>
+  </si>
+  <si>
+    <t>?pt=5%2C2%2C12</t>
+  </si>
+  <si>
+    <t>?pt=5%2C2%2C13</t>
+  </si>
+  <si>
+    <t>?pt=5%2C2%2C14</t>
+  </si>
+  <si>
+    <t>?pt=5%2C2%2C15</t>
+  </si>
+  <si>
+    <t>?pt=5%2C2%2C16</t>
+  </si>
+  <si>
+    <t>?pt=5%2C2%2C17</t>
+  </si>
+  <si>
+    <t>?pt=5%2C2%2C18</t>
+  </si>
+  <si>
+    <t>?pt=5%2C2%2C19</t>
+  </si>
+  <si>
+    <t>?pt=5%2C2%2C20</t>
+  </si>
+  <si>
+    <t>?pt=5%2C2%2C21</t>
+  </si>
+  <si>
+    <t>?pt=5%2C2%2C22</t>
+  </si>
+  <si>
+    <t>?pt=5%2C2%2C23</t>
+  </si>
+  <si>
+    <t>?pt=5%2C2%2C24</t>
+  </si>
+  <si>
+    <t>?pt=5%2C2%2C25</t>
+  </si>
+  <si>
+    <t>?pt=5%2C2%2C26</t>
+  </si>
+  <si>
+    <t>?pt=5%2C2%2C27</t>
+  </si>
+  <si>
+    <t>?pt=5%2C2%2C28</t>
+  </si>
+  <si>
+    <t>?pt=5%2C2%2C29</t>
+  </si>
+  <si>
+    <t>?pt=5%2C2%2C30</t>
+  </si>
+  <si>
+    <t>?pt=5%2C2%2C31</t>
   </si>
 </sst>
 </file>
@@ -224,7 +287,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;R&quot;* #,##0.00_-;\-&quot;R&quot;* #,##0.00_-;_-&quot;R&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-&quot;R&quot;* #,##0_-;\-&quot;R&quot;* #,##0_-;_-&quot;R&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,6 +306,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -593,7 +662,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,6 +724,9 @@
       <c r="D3" t="s">
         <v>37</v>
       </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -669,6 +741,9 @@
       <c r="D4" t="s">
         <v>38</v>
       </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -683,6 +758,9 @@
       <c r="D5" t="s">
         <v>39</v>
       </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -697,6 +775,9 @@
       <c r="D6" t="s">
         <v>40</v>
       </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -711,6 +792,9 @@
       <c r="D7" t="s">
         <v>41</v>
       </c>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -725,6 +809,9 @@
       <c r="D8" t="s">
         <v>42</v>
       </c>
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -739,6 +826,9 @@
       <c r="D9" t="s">
         <v>43</v>
       </c>
+      <c r="E9" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -753,6 +843,9 @@
       <c r="D10" t="s">
         <v>44</v>
       </c>
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -767,6 +860,9 @@
       <c r="D11" t="s">
         <v>45</v>
       </c>
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -781,6 +877,9 @@
       <c r="D12" t="s">
         <v>46</v>
       </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -795,6 +894,9 @@
       <c r="D13" t="s">
         <v>47</v>
       </c>
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -809,6 +911,9 @@
       <c r="D14" t="s">
         <v>48</v>
       </c>
+      <c r="E14" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -823,6 +928,9 @@
       <c r="D15" t="s">
         <v>49</v>
       </c>
+      <c r="E15" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -837,6 +945,9 @@
       <c r="D16" t="s">
         <v>50</v>
       </c>
+      <c r="E16" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -851,6 +962,9 @@
       <c r="D17" t="s">
         <v>51</v>
       </c>
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -865,6 +979,9 @@
       <c r="D18" t="s">
         <v>52</v>
       </c>
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -879,6 +996,9 @@
       <c r="D19" t="s">
         <v>53</v>
       </c>
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -893,6 +1013,9 @@
       <c r="D20" t="s">
         <v>56</v>
       </c>
+      <c r="E20" t="s">
+        <v>77</v>
+      </c>
       <c r="F20" t="s">
         <v>57</v>
       </c>
@@ -910,6 +1033,9 @@
       <c r="D21" t="s">
         <v>54</v>
       </c>
+      <c r="E21" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -924,6 +1050,9 @@
       <c r="D22" t="s">
         <v>59</v>
       </c>
+      <c r="E22" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -938,8 +1067,12 @@
       <c r="D23" t="s">
         <v>58</v>
       </c>
+      <c r="E23" t="s">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{305171A3-D26D-4512-A055-30ACD08EE602}"/>
   </hyperlinks>
